--- a/Solo_Analysis.xlsx
+++ b/Solo_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishi Shah\OneDrive\Documents\Lab In Psychology\Psychopy Experiments\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8669ef8a4a69d7b3/Documents/Lab In Psychology/Psychopy Experiments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B329A8CC-0698-49A1-8071-5D78BEBBB1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B329A8CC-0698-49A1-8071-5D78BEBBB1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF5D8D9D-9E72-41E5-B9CC-3905A5658E0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{3EB0B436-B4BB-47BA-BD0D-7BBEF86AAD2C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="100">
   <si>
     <t>study_word</t>
   </si>
@@ -354,6 +354,27 @@
   </si>
   <si>
     <t>Means &amp; Standard Deviations of Study Variables</t>
+  </si>
+  <si>
+    <t>Descriptives - MRS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Coefficient of variation</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column11</t>
   </si>
 </sst>
 </file>
@@ -458,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,6 +496,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,12 +514,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2701,7 +2794,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D9D9CFA-92F4-4FBF-BCDD-8128BFBF1744}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D9D9CFA-92F4-4FBF-BCDD-8128BFBF1744}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:G9" xr:uid="{6D9D9CFA-92F4-4FBF-BCDD-8128BFBF1744}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E298907E-83E9-46BC-8765-B4B3C71DE490}" name="Column1"/>
@@ -2727,6 +2820,22 @@
     <tableColumn id="5" xr3:uid="{AD128A67-2C48-4358-A2A9-64A7AEB983AC}" name="Food"/>
     <tableColumn id="6" xr3:uid="{26974E51-8AB0-490C-B89A-C01B5AA31CC2}" name="Major"/>
     <tableColumn id="7" xr3:uid="{CA1FF6E9-C586-4860-B7AE-82890312845E}" name="Preposition"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03453CFE-A727-4F5B-A9DB-D6772C694B0E}" name="Table1" displayName="Table1" ref="A45:G50" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A45:G50" xr:uid="{03453CFE-A727-4F5B-A9DB-D6772C694B0E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DB879B5D-19D7-4585-90A7-ED9900CF12CD}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{438EC873-25F5-4385-8C09-E2562E0F4220}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C722353A-3A6B-4711-8041-7DB4DC6633D5}" name="Column5" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C696E5E2-9853-4DD3-AE7F-7D23061B70F5}" name="Column7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9222F1D3-8AA5-4E07-9313-EC7E04AC5BF6}" name="Column8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{074BF4D2-69C6-4F35-BE9A-8461F1D71F44}" name="Column9" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{D1BBFBBE-D275-4DAA-8E46-33D52D7250CA}" name="Column11" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7872,10 +7981,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DB2690-4250-48DD-91C3-5BF2F37173CC}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7885,6 +7994,8 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -8107,15 +8218,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8279,15 +8390,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8353,15 +8459,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -8374,7 +8475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>82</v>
       </c>
@@ -8386,7 +8487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>AVERAGE(B25:B26)</f>
         <v>84</v>
@@ -8395,7 +8496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>96</v>
       </c>
@@ -8403,18 +8504,152 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G48" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A44:L44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8424,7 +8659,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8435,46 +8670,46 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -8525,34 +8760,34 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
